--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Guca2a</t>
   </si>
   <si>
     <t>Gucy2c</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,43 +522,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.7249690000000001</v>
+      </c>
+      <c r="H2">
+        <v>2.174907</v>
+      </c>
+      <c r="I2">
+        <v>0.3184714299144</v>
+      </c>
+      <c r="J2">
+        <v>0.3184714299144</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.1713026666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.513908</v>
-      </c>
-      <c r="I2">
-        <v>0.1212332525438771</v>
-      </c>
-      <c r="J2">
-        <v>0.1212332525438771</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1735666666666666</v>
+        <v>0.015763</v>
       </c>
       <c r="N2">
-        <v>0.5206999999999999</v>
+        <v>0.047289</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02973243284444444</v>
+        <v>0.011427686347</v>
       </c>
       <c r="R2">
-        <v>0.2675918956</v>
+        <v>0.102849177123</v>
       </c>
       <c r="S2">
-        <v>0.1212332525438771</v>
+        <v>0.3184714299144</v>
       </c>
       <c r="T2">
-        <v>0.1212332525438771</v>
+        <v>0.3184714299144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,22 +605,22 @@
         <v>3.127649</v>
       </c>
       <c r="I3">
-        <v>0.7378267337453487</v>
+        <v>0.4579813524441934</v>
       </c>
       <c r="J3">
-        <v>0.7378267337453487</v>
+        <v>0.4579813524441934</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1735666666666666</v>
+        <v>0.015763</v>
       </c>
       <c r="N3">
-        <v>0.5206999999999999</v>
+        <v>0.047289</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1809518704777778</v>
+        <v>0.01643371039566667</v>
       </c>
       <c r="R3">
-        <v>1.6285668343</v>
+        <v>0.147903393561</v>
       </c>
       <c r="S3">
-        <v>0.7378267337453487</v>
+        <v>0.4579813524441934</v>
       </c>
       <c r="T3">
-        <v>0.7378267337453487</v>
+        <v>0.4579813524441934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,28 +661,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1991483333333333</v>
+        <v>0.4282536666666667</v>
       </c>
       <c r="H4">
-        <v>0.597445</v>
+        <v>1.284761</v>
       </c>
       <c r="I4">
-        <v>0.1409400137107744</v>
+        <v>0.1881274338480931</v>
       </c>
       <c r="J4">
-        <v>0.1409400137107744</v>
+        <v>0.188127433848093</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1735666666666666</v>
+        <v>0.015763</v>
       </c>
       <c r="N4">
-        <v>0.5206999999999999</v>
+        <v>0.047289</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.03456551238888889</v>
+        <v>0.006750562547666667</v>
       </c>
       <c r="R4">
-        <v>0.3110896115</v>
+        <v>0.060755062929</v>
       </c>
       <c r="S4">
-        <v>0.1409400137107744</v>
+        <v>0.1881274338480931</v>
       </c>
       <c r="T4">
-        <v>0.1409400137107744</v>
+        <v>0.188127433848093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.08062966666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.241889</v>
+      </c>
+      <c r="I5">
+        <v>0.0354197837933136</v>
+      </c>
+      <c r="J5">
+        <v>0.0354197837933136</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.015763</v>
+      </c>
+      <c r="N5">
+        <v>0.047289</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.001270965435666667</v>
+      </c>
+      <c r="R5">
+        <v>0.011438688921</v>
+      </c>
+      <c r="S5">
+        <v>0.0354197837933136</v>
+      </c>
+      <c r="T5">
+        <v>0.0354197837933136</v>
       </c>
     </row>
   </sheetData>
